--- a/Monster-Loot kaarten.xlsx
+++ b/Monster-Loot kaarten.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\DungeonCardGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD51283-B917-414A-8F90-C59A668F7436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6B9E7C-30B6-4BCE-B58B-96EDED274184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="0" windowWidth="18810" windowHeight="15600" xr2:uid="{916F98CD-055E-4368-AA8E-18959C66577D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{916F98CD-055E-4368-AA8E-18959C66577D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="70">
   <si>
     <t>Monster</t>
   </si>
@@ -62,9 +63,6 @@
     <t>Bronze</t>
   </si>
   <si>
-    <t>Consequence</t>
-  </si>
-  <si>
     <t>Paper stack</t>
   </si>
   <si>
@@ -77,9 +75,6 @@
     <t>Demon pup</t>
   </si>
   <si>
-    <t>but it looks so cute</t>
-  </si>
-  <si>
     <t>Loot</t>
   </si>
   <si>
@@ -98,59 +93,167 @@
     <t>Spiked helmet</t>
   </si>
   <si>
-    <t>Face</t>
-  </si>
-  <si>
-    <t>don't scratch your head</t>
-  </si>
-  <si>
     <t>Lead pants</t>
   </si>
   <si>
     <t>Legs</t>
   </si>
   <si>
-    <t>radition resistant</t>
-  </si>
-  <si>
     <t>Chainmail bra</t>
   </si>
   <si>
-    <t>Chest</t>
-  </si>
-  <si>
-    <t>stylish</t>
-  </si>
-  <si>
     <t>Crooked sword</t>
   </si>
   <si>
     <t>Weapon</t>
   </si>
   <si>
-    <t>not that usefull</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>it's sticky to the touch</t>
   </si>
   <si>
-    <t>just do the thing</t>
-  </si>
-  <si>
-    <t>please make it stop</t>
-  </si>
-  <si>
-    <t>just awfull</t>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Torso</t>
+  </si>
+  <si>
+    <t>Just awfull</t>
+  </si>
+  <si>
+    <t>Don't scratch your head</t>
+  </si>
+  <si>
+    <t>Radiation resistant</t>
+  </si>
+  <si>
+    <t>Not that usefull</t>
+  </si>
+  <si>
+    <t>Stylish</t>
+  </si>
+  <si>
+    <t>But it looks so cute'</t>
+  </si>
+  <si>
+    <t>Please stop</t>
+  </si>
+  <si>
+    <t>Concequences</t>
+  </si>
+  <si>
+    <t>Just do the thing</t>
+  </si>
+  <si>
+    <t>Been played</t>
+  </si>
+  <si>
+    <t>Random Bronze</t>
+  </si>
+  <si>
+    <t>Random Silver</t>
+  </si>
+  <si>
+    <t>Random Gold</t>
+  </si>
+  <si>
+    <t>5 bronze</t>
+  </si>
+  <si>
+    <t>3 bronze 2 silver</t>
+  </si>
+  <si>
+    <t>1 bronze 3 silver 1 gold</t>
+  </si>
+  <si>
+    <t>3 silver 2 gold</t>
+  </si>
+  <si>
+    <t>Avg. Gold</t>
+  </si>
+  <si>
+    <t>Avg. Silver</t>
+  </si>
+  <si>
+    <t>Avg. Bronze</t>
+  </si>
+  <si>
+    <t>Dungeon 1</t>
+  </si>
+  <si>
+    <t>Dungeon 2</t>
+  </si>
+  <si>
+    <t>Dungeon 3</t>
+  </si>
+  <si>
+    <t>Dungeon 4</t>
+  </si>
+  <si>
+    <t>1P Damage total</t>
+  </si>
+  <si>
+    <t>2P Damage total</t>
+  </si>
+  <si>
+    <t>3P Damage total</t>
+  </si>
+  <si>
+    <t>4P Damage total</t>
+  </si>
+  <si>
+    <t>Test Nr.</t>
+  </si>
+  <si>
+    <t>Speler aantal</t>
+  </si>
+  <si>
+    <t>Gold total</t>
+  </si>
+  <si>
+    <t>Damage total</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Veel te makkelijk. Gold in overvloed. Niet genoeg silver loot</t>
+  </si>
+  <si>
+    <t>Changes since last</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Dungeon</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>4 bronze</t>
+  </si>
+  <si>
+    <t>2 bronze, 2 silver</t>
+  </si>
+  <si>
+    <t>4 silver</t>
+  </si>
+  <si>
+    <t>2 silver, 2 gold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +285,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -191,7 +302,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -217,6 +328,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -224,7 +355,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
@@ -232,6 +363,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
@@ -549,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76047A40-DCD3-4488-9D2C-799468435FDD}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,6 +702,7 @@
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
@@ -572,15 +711,19 @@
     <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -597,20 +740,23 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>2</v>
@@ -618,8 +764,20 @@
       <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -639,31 +797,43 @@
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
         <v>7</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="S2">
+        <f ca="1">RANDBETWEEN(1,20)</f>
+        <v>20</v>
+      </c>
+      <c r="T2">
+        <f ca="1">RANDBETWEEN(21,35)</f>
+        <v>23</v>
+      </c>
+      <c r="U2">
+        <f ca="1">RANDBETWEEN(36,45)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -674,46 +844,38 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="J3" s="4">
         <v>2</v>
       </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
       <c r="L3" t="s">
         <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -724,66 +886,56 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3"/>
       <c r="J4" s="4">
         <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="G5" s="3"/>
       <c r="J5" s="4">
         <v>4</v>
       </c>
-      <c r="K5" t="s">
-        <v>25</v>
-      </c>
       <c r="L5" t="s">
         <v>7</v>
       </c>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -791,43 +943,33 @@
       <c r="O5">
         <v>1</v>
       </c>
-      <c r="P5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G6" s="3"/>
       <c r="J6" s="4">
         <v>5</v>
       </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
       <c r="L6" t="s">
         <v>7</v>
       </c>
       <c r="M6" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -835,11 +977,15 @@
       <c r="O6">
         <v>1</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P6" s="3"/>
+      <c r="T6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -847,14 +993,15 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7" s="3"/>
       <c r="J7" s="4">
         <v>6</v>
       </c>
@@ -862,7 +1009,7 @@
         <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -870,40 +1017,71 @@
       <c r="O7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P7" s="3"/>
+      <c r="S7" s="7">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="J8" s="4">
         <v>7</v>
       </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
       <c r="L8" t="s">
         <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="7">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -911,14 +1089,15 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="G9" s="3"/>
       <c r="J9" s="4">
         <v>8</v>
       </c>
@@ -926,7 +1105,7 @@
         <v>7</v>
       </c>
       <c r="M9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -934,8 +1113,18 @@
       <c r="O9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P9" s="3"/>
+      <c r="S9" s="7">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -951,6 +1140,7 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10" s="3"/>
       <c r="J10" s="4">
         <v>9</v>
       </c>
@@ -958,7 +1148,7 @@
         <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -966,8 +1156,18 @@
       <c r="O10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P10" s="3"/>
+      <c r="S10" s="7">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -975,29 +1175,1509 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="G11" s="3"/>
       <c r="J11" s="4">
         <v>10</v>
       </c>
+      <c r="K11" t="s">
+        <v>15</v>
+      </c>
       <c r="L11" t="s">
         <v>7</v>
       </c>
       <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="J12" s="4">
+        <v>11</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="T12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="4">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="S13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13">
+        <f>AVERAGE(N2:N21)</f>
+        <v>2.5</v>
+      </c>
+      <c r="U13">
+        <f>AVERAGE(D2:D21)</f>
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="J14" s="4">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="S14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14">
+        <f>AVERAGE(N22:N36)</f>
+        <v>6.5333333333333332</v>
+      </c>
+      <c r="U14">
+        <f>AVERAGE(D22:D36)</f>
+        <v>14.333333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="J15" s="4">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15">
+        <f>AVERAGE(N37:N46)</f>
+        <v>9.9</v>
+      </c>
+      <c r="U15">
+        <f>AVERAGE(D37:D46)</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="J16" s="4">
+        <v>15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="4">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="T17" t="s">
+        <v>52</v>
+      </c>
+      <c r="U17" t="s">
+        <v>53</v>
+      </c>
+      <c r="V17" t="s">
+        <v>54</v>
+      </c>
+      <c r="W17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="J18" s="4">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="S18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18">
+        <f>5*T13</f>
+        <v>12.5</v>
+      </c>
+      <c r="U18">
+        <f>0.5*T18</f>
+        <v>6.25</v>
+      </c>
+      <c r="V18">
+        <f>1/3*T18</f>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="W18">
+        <f>0.5*U18</f>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="J19" s="4">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="S19" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19">
+        <f>T18+3*T13+2*T14</f>
+        <v>33.066666666666663</v>
+      </c>
+      <c r="U19">
+        <f>0.5*T19</f>
+        <v>16.533333333333331</v>
+      </c>
+      <c r="V19">
+        <f>1/3*T19</f>
+        <v>11.02222222222222</v>
+      </c>
+      <c r="W19">
+        <f>0.5*U19</f>
+        <v>8.2666666666666657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="J20" s="4">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>5</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="S20" t="s">
+        <v>50</v>
+      </c>
+      <c r="T20">
+        <f>T19+T13+3*T14+T15</f>
+        <v>65.066666666666663</v>
+      </c>
+      <c r="U20">
+        <f>0.5*T20</f>
+        <v>32.533333333333331</v>
+      </c>
+      <c r="V20">
+        <f>1/3*T20</f>
+        <v>21.688888888888886</v>
+      </c>
+      <c r="W20">
+        <f>0.5*U20</f>
+        <v>16.266666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="J21" s="4">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="S21" t="s">
+        <v>51</v>
+      </c>
+      <c r="T21">
+        <f>T20+3*T14+2*T15</f>
+        <v>104.46666666666665</v>
+      </c>
+      <c r="U21">
+        <f>0.5*T21</f>
+        <v>52.233333333333327</v>
+      </c>
+      <c r="V21">
+        <f>1/3*T21</f>
+        <v>34.822222222222216</v>
+      </c>
+      <c r="W21">
+        <f>0.5*U21</f>
+        <v>26.116666666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="J22" s="4">
+        <v>21</v>
+      </c>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="J23" s="4">
+        <v>22</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="J24" s="4">
+        <v>23</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="J25" s="4">
+        <v>24</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>6</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="J26" s="4">
+        <v>25</v>
+      </c>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26">
+        <v>6</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="J27" s="4">
+        <v>26</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <v>6</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>13</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="J28" s="4">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <v>6</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="J29" s="4">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>6</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <v>3</v>
-      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="J30" s="4">
+        <v>29</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30">
+        <v>7</v>
+      </c>
+      <c r="O30">
+        <v>7</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="J31" s="4">
+        <v>30</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>7</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="J32" s="4">
+        <v>31</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32">
+        <v>7</v>
+      </c>
+      <c r="O32">
+        <v>7</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="J33" s="4">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>8</v>
+      </c>
+      <c r="O33">
+        <v>8</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="J34" s="4">
+        <v>33</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34">
+        <v>8</v>
+      </c>
+      <c r="O34">
+        <v>8</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <v>19</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="J35" s="4">
+        <v>34</v>
+      </c>
+      <c r="L35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35">
+        <v>8</v>
+      </c>
+      <c r="O35">
+        <v>8</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="J36" s="4">
+        <v>35</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36">
+        <v>8</v>
+      </c>
+      <c r="O36">
+        <v>8</v>
+      </c>
+      <c r="P36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>21</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="J37" s="4">
+        <v>36</v>
+      </c>
+      <c r="L37" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37">
+        <v>9</v>
+      </c>
+      <c r="O37">
+        <v>9</v>
+      </c>
+      <c r="P37" s="3"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="J38" s="4">
+        <v>37</v>
+      </c>
+      <c r="L38" t="s">
+        <v>2</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38">
+        <v>9</v>
+      </c>
+      <c r="O38">
+        <v>9</v>
+      </c>
+      <c r="P38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="J39" s="4">
+        <v>38</v>
+      </c>
+      <c r="L39" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39">
+        <v>9</v>
+      </c>
+      <c r="O39">
+        <v>9</v>
+      </c>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>24</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="J40" s="4">
+        <v>39</v>
+      </c>
+      <c r="L40" t="s">
+        <v>2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40">
+        <v>9</v>
+      </c>
+      <c r="O40">
+        <v>9</v>
+      </c>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>25</v>
+      </c>
+      <c r="E41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="J41" s="4">
+        <v>40</v>
+      </c>
+      <c r="L41" t="s">
+        <v>2</v>
+      </c>
+      <c r="M41" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>10</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="J42" s="4">
+        <v>41</v>
+      </c>
+      <c r="L42" t="s">
+        <v>2</v>
+      </c>
+      <c r="M42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N42">
+        <v>10</v>
+      </c>
+      <c r="O42">
+        <v>10</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>27</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="J43" s="4">
+        <v>42</v>
+      </c>
+      <c r="L43" t="s">
+        <v>2</v>
+      </c>
+      <c r="M43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <v>10</v>
+      </c>
+      <c r="O43">
+        <v>10</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>28</v>
+      </c>
+      <c r="E44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="J44" s="4">
+        <v>43</v>
+      </c>
+      <c r="L44" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44">
+        <v>11</v>
+      </c>
+      <c r="O44">
+        <v>11</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>29</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="J45" s="4">
+        <v>44</v>
+      </c>
+      <c r="L45" t="s">
+        <v>2</v>
+      </c>
+      <c r="M45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>11</v>
+      </c>
+      <c r="O45">
+        <v>11</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>30</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="J46" s="4">
+        <v>45</v>
+      </c>
+      <c r="L46" t="s">
+        <v>2</v>
+      </c>
+      <c r="M46" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46">
+        <v>11</v>
+      </c>
+      <c r="O46">
+        <v>11</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="U13:U15 T13:T15" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6586E17-CBD1-4966-BC6E-86276A2F2396}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Monster-Loot kaarten.xlsx
+++ b/Monster-Loot kaarten.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\DungeonCardGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6B9E7C-30B6-4BCE-B58B-96EDED274184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86194E7C-93B6-40AA-84F0-D51C572FFC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{916F98CD-055E-4368-AA8E-18959C66577D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="95">
   <si>
     <t>Monster</t>
   </si>
@@ -213,12 +213,6 @@
     <t>Speler aantal</t>
   </si>
   <si>
-    <t>Gold total</t>
-  </si>
-  <si>
-    <t>Damage total</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -247,13 +241,106 @@
   </si>
   <si>
     <t>2 silver, 2 gold</t>
+  </si>
+  <si>
+    <t>Upped floor tiles to 40</t>
+  </si>
+  <si>
+    <t>G total</t>
+  </si>
+  <si>
+    <t>D total</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x </t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H total</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Heel snel bij het einde, brons monster in 3e level niet meer nodig</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>loot silver</t>
+  </si>
+  <si>
+    <t>loot gold</t>
+  </si>
+  <si>
+    <t>monster silver</t>
+  </si>
+  <si>
+    <t>31,32,33</t>
+  </si>
+  <si>
+    <t>36,37,38</t>
+  </si>
+  <si>
+    <t>monster gold</t>
+  </si>
+  <si>
+    <t>39.40</t>
+  </si>
+  <si>
+    <t>34.35</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Small rule changes, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buffed monsters, debuffed items, added more silver removed bronze</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +376,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -355,7 +449,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
@@ -370,6 +464,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
@@ -689,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76047A40-DCD3-4488-9D2C-799468435FDD}">
   <dimension ref="A1:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,15 +917,15 @@
       </c>
       <c r="S2">
         <f ca="1">RANDBETWEEN(1,20)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="T2">
         <f ca="1">RANDBETWEEN(21,35)</f>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U2">
         <f ca="1">RANDBETWEEN(36,45)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -871,6 +966,9 @@
         <v>1</v>
       </c>
       <c r="P3" s="3"/>
+      <c r="Q3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -979,10 +1077,10 @@
       </c>
       <c r="P6" s="3"/>
       <c r="T6" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1025,7 +1123,7 @@
         <v>41</v>
       </c>
       <c r="U7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1050,6 +1148,9 @@
       <c r="G8" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
       <c r="J8" s="4">
         <v>7</v>
       </c>
@@ -1078,7 +1179,7 @@
         <v>42</v>
       </c>
       <c r="U8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1121,7 +1222,7 @@
         <v>43</v>
       </c>
       <c r="U9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1141,6 +1242,9 @@
         <v>1</v>
       </c>
       <c r="G10" s="3"/>
+      <c r="H10" t="s">
+        <v>78</v>
+      </c>
       <c r="J10" s="4">
         <v>9</v>
       </c>
@@ -1164,7 +1268,7 @@
         <v>44</v>
       </c>
       <c r="U10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1184,6 +1288,9 @@
         <v>1</v>
       </c>
       <c r="G11" s="3"/>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
       <c r="J11" s="4">
         <v>10</v>
       </c>
@@ -1204,6 +1311,9 @@
       </c>
       <c r="P11" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1239,6 +1349,9 @@
         <v>2</v>
       </c>
       <c r="P12" s="3"/>
+      <c r="Q12" t="s">
+        <v>83</v>
+      </c>
       <c r="T12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1313,6 +1426,9 @@
         <v>1</v>
       </c>
       <c r="G14" s="3"/>
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
       <c r="J14" s="4">
         <v>13</v>
       </c>
@@ -1329,6 +1445,9 @@
         <v>3</v>
       </c>
       <c r="P14" s="3"/>
+      <c r="Q14" t="s">
+        <v>83</v>
+      </c>
       <c r="S14" s="7" t="s">
         <v>46</v>
       </c>
@@ -1379,6 +1498,9 @@
       <c r="P15" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="Q15" t="s">
+        <v>83</v>
+      </c>
       <c r="S15" s="7" t="s">
         <v>45</v>
       </c>
@@ -1408,6 +1530,9 @@
         <v>1</v>
       </c>
       <c r="G16" s="3"/>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
       <c r="J16" s="4">
         <v>15</v>
       </c>
@@ -1447,6 +1572,9 @@
       <c r="G17" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="H17" t="s">
+        <v>77</v>
+      </c>
       <c r="J17" s="4">
         <v>16</v>
       </c>
@@ -1463,6 +1591,9 @@
         <v>4</v>
       </c>
       <c r="P17" s="3"/>
+      <c r="Q17">
+        <v>2</v>
+      </c>
       <c r="T17" t="s">
         <v>52</v>
       </c>
@@ -1509,6 +1640,9 @@
         <v>4</v>
       </c>
       <c r="P18" s="3"/>
+      <c r="Q18" t="s">
+        <v>83</v>
+      </c>
       <c r="S18" t="s">
         <v>48</v>
       </c>
@@ -1599,6 +1733,9 @@
         <v>1</v>
       </c>
       <c r="G20" s="3"/>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
       <c r="J20" s="4">
         <v>19</v>
       </c>
@@ -1721,6 +1858,9 @@
         <v>5</v>
       </c>
       <c r="P22" s="3"/>
+      <c r="Q22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1739,6 +1879,9 @@
         <v>1</v>
       </c>
       <c r="G23" s="3"/>
+      <c r="H23" t="s">
+        <v>78</v>
+      </c>
       <c r="J23" s="4">
         <v>22</v>
       </c>
@@ -1755,6 +1898,9 @@
         <v>5</v>
       </c>
       <c r="P23" s="3"/>
+      <c r="Q23" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1823,6 +1969,9 @@
         <v>6</v>
       </c>
       <c r="P25" s="3"/>
+      <c r="Q25" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1857,6 +2006,9 @@
         <v>6</v>
       </c>
       <c r="P26" s="3"/>
+      <c r="Q26" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1891,6 +2043,9 @@
         <v>6</v>
       </c>
       <c r="P27" s="3"/>
+      <c r="Q27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1925,6 +2080,9 @@
         <v>6</v>
       </c>
       <c r="P28" s="3"/>
+      <c r="Q28" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1943,6 +2101,9 @@
         <v>1</v>
       </c>
       <c r="G29" s="3"/>
+      <c r="H29" t="s">
+        <v>78</v>
+      </c>
       <c r="J29" s="4">
         <v>28</v>
       </c>
@@ -1959,6 +2120,15 @@
         <v>6</v>
       </c>
       <c r="P29" s="3"/>
+      <c r="S29" t="s">
+        <v>89</v>
+      </c>
+      <c r="T29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1993,6 +2163,18 @@
         <v>7</v>
       </c>
       <c r="P30" s="3"/>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="S30" t="s">
+        <v>93</v>
+      </c>
+      <c r="T30" t="s">
+        <v>87</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -2011,6 +2193,9 @@
         <v>2</v>
       </c>
       <c r="G31" s="3"/>
+      <c r="H31" t="s">
+        <v>78</v>
+      </c>
       <c r="J31" s="4">
         <v>30</v>
       </c>
@@ -2027,6 +2212,15 @@
         <v>7</v>
       </c>
       <c r="P31" s="3"/>
+      <c r="S31" t="s">
+        <v>90</v>
+      </c>
+      <c r="T31" t="s">
+        <v>88</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -2045,6 +2239,9 @@
         <v>2</v>
       </c>
       <c r="G32" s="3"/>
+      <c r="H32" t="s">
+        <v>78</v>
+      </c>
       <c r="J32" s="4">
         <v>31</v>
       </c>
@@ -2061,8 +2258,20 @@
         <v>7</v>
       </c>
       <c r="P32" s="3"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32" t="s">
+        <v>61</v>
+      </c>
+      <c r="S32" t="s">
+        <v>92</v>
+      </c>
+      <c r="T32" t="s">
+        <v>91</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2095,8 +2304,11 @@
         <v>8</v>
       </c>
       <c r="P33" s="3"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2113,6 +2325,9 @@
         <v>2</v>
       </c>
       <c r="G34" s="3"/>
+      <c r="H34" t="s">
+        <v>78</v>
+      </c>
       <c r="J34" s="4">
         <v>33</v>
       </c>
@@ -2128,9 +2343,14 @@
       <c r="O34">
         <v>8</v>
       </c>
-      <c r="P34" s="3"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2147,6 +2367,9 @@
         <v>2</v>
       </c>
       <c r="G35" s="3"/>
+      <c r="H35" t="s">
+        <v>78</v>
+      </c>
       <c r="J35" s="4">
         <v>34</v>
       </c>
@@ -2163,8 +2386,11 @@
         <v>8</v>
       </c>
       <c r="P35" s="3"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2181,6 +2407,9 @@
         <v>2</v>
       </c>
       <c r="G36" s="3"/>
+      <c r="H36" t="s">
+        <v>78</v>
+      </c>
       <c r="J36" s="4">
         <v>35</v>
       </c>
@@ -2197,8 +2426,11 @@
         <v>8</v>
       </c>
       <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2232,7 +2464,7 @@
       </c>
       <c r="P37" s="3"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2249,6 +2481,9 @@
         <v>2</v>
       </c>
       <c r="G38" s="3"/>
+      <c r="H38" t="s">
+        <v>78</v>
+      </c>
       <c r="J38" s="4">
         <v>37</v>
       </c>
@@ -2265,8 +2500,11 @@
         <v>9</v>
       </c>
       <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2283,6 +2521,9 @@
         <v>2</v>
       </c>
       <c r="G39" s="3"/>
+      <c r="H39" t="s">
+        <v>78</v>
+      </c>
       <c r="J39" s="4">
         <v>38</v>
       </c>
@@ -2299,8 +2540,11 @@
         <v>9</v>
       </c>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2334,7 +2578,7 @@
       </c>
       <c r="P40" s="3"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2367,8 +2611,11 @@
         <v>10</v>
       </c>
       <c r="P41" s="3"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2402,7 +2649,7 @@
       </c>
       <c r="P42" s="3"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2435,8 +2682,11 @@
         <v>10</v>
       </c>
       <c r="P43" s="3"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2469,8 +2719,11 @@
         <v>11</v>
       </c>
       <c r="P44" s="3"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2504,7 +2757,7 @@
       </c>
       <c r="P45" s="3"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2537,6 +2790,9 @@
         <v>11</v>
       </c>
       <c r="P46" s="3"/>
+      <c r="Q46">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2548,23 +2804,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6586E17-CBD1-4966-BC6E-86276A2F2396}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="82.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="58.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
@@ -2572,112 +2831,231 @@
         <v>57</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2">
+        <v>38</v>
+      </c>
+      <c r="M2">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>38</v>
-      </c>
-      <c r="D2">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>0.7</v>
+      </c>
+      <c r="G3">
+        <v>11.18</v>
+      </c>
+      <c r="H3">
+        <v>3.3</v>
+      </c>
+      <c r="I3">
+        <v>11.16</v>
+      </c>
+      <c r="J3">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="K3">
+        <v>3.3</v>
+      </c>
+      <c r="L3">
+        <v>35.21</v>
+      </c>
+      <c r="M3">
+        <v>49.39</v>
+      </c>
+      <c r="N3">
+        <v>3.3</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
+      <c r="P27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
